--- a/File_Excel/commenti_per_notizia_cronaca_nera.xlsx
+++ b/File_Excel/commenti_per_notizia_cronaca_nera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -693,11 +693,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -709,16 +709,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -735,11 +735,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -756,11 +756,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -772,16 +772,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -798,11 +798,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -819,28 +819,28 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -861,11 +861,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -882,11 +882,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -898,16 +898,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -924,11 +924,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -945,11 +945,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -961,16 +961,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -987,11 +987,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1008,32 +1008,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1087,16 +1087,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1113,11 +1113,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1150,16 +1150,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1197,11 +1197,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>YouTube</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>104</v>
+      <c r="E38" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
